--- a/sensitivity analysis/outputs/S5/S5_start_immunity.xlsx
+++ b/sensitivity analysis/outputs/S5/S5_start_immunity.xlsx
@@ -355,7 +355,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:F101"/>
+  <dimension ref="A1:E101"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -377,22 +377,17 @@
       </c>
       <c r="C1" s="1" t="inlineStr">
         <is>
-          <t>overall_death_upper</t>
+          <t>immunity_all</t>
         </is>
       </c>
       <c r="D1" s="1" t="inlineStr">
         <is>
-          <t>infection_death_upper</t>
+          <t>immunity_by_infection</t>
         </is>
       </c>
       <c r="E1" s="1" t="inlineStr">
         <is>
-          <t>vaccination_death_upper</t>
-        </is>
-      </c>
-      <c r="F1" s="1" t="inlineStr">
-        <is>
-          <t>scenario</t>
+          <t>immunity_by_vaccination</t>
         </is>
       </c>
     </row>
@@ -414,11 +409,6 @@
       <c r="E2">
         <v>44.81348600949811</v>
       </c>
-      <c r="F2" t="inlineStr">
-        <is>
-          <t>S5</t>
-        </is>
-      </c>
     </row>
     <row r="3">
       <c r="A3" t="inlineStr">
@@ -438,11 +428,6 @@
       <c r="E3">
         <v>30.0654685149135</v>
       </c>
-      <c r="F3" t="inlineStr">
-        <is>
-          <t>S5</t>
-        </is>
-      </c>
     </row>
     <row r="4">
       <c r="A4" t="inlineStr">
@@ -462,11 +447,6 @@
       <c r="E4">
         <v>50.77993241202797</v>
       </c>
-      <c r="F4" t="inlineStr">
-        <is>
-          <t>S5</t>
-        </is>
-      </c>
     </row>
     <row r="5">
       <c r="A5" t="inlineStr">
@@ -486,11 +466,6 @@
       <c r="E5">
         <v>27.92224978552357</v>
       </c>
-      <c r="F5" t="inlineStr">
-        <is>
-          <t>S5</t>
-        </is>
-      </c>
     </row>
     <row r="6">
       <c r="A6" t="inlineStr">
@@ -510,11 +485,6 @@
       <c r="E6">
         <v>40.79653466175498</v>
       </c>
-      <c r="F6" t="inlineStr">
-        <is>
-          <t>S5</t>
-        </is>
-      </c>
     </row>
     <row r="7">
       <c r="A7" t="inlineStr">
@@ -534,11 +504,6 @@
       <c r="E7">
         <v>46.09740784647847</v>
       </c>
-      <c r="F7" t="inlineStr">
-        <is>
-          <t>S5</t>
-        </is>
-      </c>
     </row>
     <row r="8">
       <c r="A8" t="inlineStr">
@@ -558,11 +523,6 @@
       <c r="E8">
         <v>43.17335152827879</v>
       </c>
-      <c r="F8" t="inlineStr">
-        <is>
-          <t>S5</t>
-        </is>
-      </c>
     </row>
     <row r="9">
       <c r="A9" t="inlineStr">
@@ -582,11 +542,6 @@
       <c r="E9">
         <v>41.2609406211385</v>
       </c>
-      <c r="F9" t="inlineStr">
-        <is>
-          <t>S5</t>
-        </is>
-      </c>
     </row>
     <row r="10">
       <c r="A10" t="inlineStr">
@@ -606,11 +561,6 @@
       <c r="E10">
         <v>33.06171551933834</v>
       </c>
-      <c r="F10" t="inlineStr">
-        <is>
-          <t>S5</t>
-        </is>
-      </c>
     </row>
     <row r="11">
       <c r="A11" t="inlineStr">
@@ -630,11 +580,6 @@
       <c r="E11">
         <v>49.06748884478831</v>
       </c>
-      <c r="F11" t="inlineStr">
-        <is>
-          <t>S5</t>
-        </is>
-      </c>
     </row>
     <row r="12">
       <c r="A12" t="inlineStr">
@@ -654,11 +599,6 @@
       <c r="E12">
         <v>46.7876473795855</v>
       </c>
-      <c r="F12" t="inlineStr">
-        <is>
-          <t>S5</t>
-        </is>
-      </c>
     </row>
     <row r="13">
       <c r="A13" t="inlineStr">
@@ -678,11 +618,6 @@
       <c r="E13">
         <v>31.11422338968807</v>
       </c>
-      <c r="F13" t="inlineStr">
-        <is>
-          <t>S5</t>
-        </is>
-      </c>
     </row>
     <row r="14">
       <c r="A14" t="inlineStr">
@@ -702,11 +637,6 @@
       <c r="E14">
         <v>30.78172456414869</v>
       </c>
-      <c r="F14" t="inlineStr">
-        <is>
-          <t>S5</t>
-        </is>
-      </c>
     </row>
     <row r="15">
       <c r="A15" t="inlineStr">
@@ -726,11 +656,6 @@
       <c r="E15">
         <v>32.18610812380206</v>
       </c>
-      <c r="F15" t="inlineStr">
-        <is>
-          <t>S5</t>
-        </is>
-      </c>
     </row>
     <row r="16">
       <c r="A16" t="inlineStr">
@@ -750,11 +675,6 @@
       <c r="E16">
         <v>32.0718929433087</v>
       </c>
-      <c r="F16" t="inlineStr">
-        <is>
-          <t>S5</t>
-        </is>
-      </c>
     </row>
     <row r="17">
       <c r="A17" t="inlineStr">
@@ -774,11 +694,6 @@
       <c r="E17">
         <v>40.6322624770084</v>
       </c>
-      <c r="F17" t="inlineStr">
-        <is>
-          <t>S5</t>
-        </is>
-      </c>
     </row>
     <row r="18">
       <c r="A18" t="inlineStr">
@@ -798,11 +713,6 @@
       <c r="E18">
         <v>37.99377977496323</v>
       </c>
-      <c r="F18" t="inlineStr">
-        <is>
-          <t>S5</t>
-        </is>
-      </c>
     </row>
     <row r="19">
       <c r="A19" t="inlineStr">
@@ -822,11 +732,6 @@
       <c r="E19">
         <v>33.77182577149271</v>
       </c>
-      <c r="F19" t="inlineStr">
-        <is>
-          <t>S5</t>
-        </is>
-      </c>
     </row>
     <row r="20">
       <c r="A20" t="inlineStr">
@@ -846,11 +751,6 @@
       <c r="E20">
         <v>49.45006792033143</v>
       </c>
-      <c r="F20" t="inlineStr">
-        <is>
-          <t>S5</t>
-        </is>
-      </c>
     </row>
     <row r="21">
       <c r="A21" t="inlineStr">
@@ -870,11 +770,6 @@
       <c r="E21">
         <v>30.78858754939254</v>
       </c>
-      <c r="F21" t="inlineStr">
-        <is>
-          <t>S5</t>
-        </is>
-      </c>
     </row>
     <row r="22">
       <c r="A22" t="inlineStr">
@@ -894,11 +789,6 @@
       <c r="E22">
         <v>46.92851349613549</v>
       </c>
-      <c r="F22" t="inlineStr">
-        <is>
-          <t>S5</t>
-        </is>
-      </c>
     </row>
     <row r="23">
       <c r="A23" t="inlineStr">
@@ -918,11 +808,6 @@
       <c r="E23">
         <v>34.90912819560169</v>
       </c>
-      <c r="F23" t="inlineStr">
-        <is>
-          <t>S5</t>
-        </is>
-      </c>
     </row>
     <row r="24">
       <c r="A24" t="inlineStr">
@@ -942,11 +827,6 @@
       <c r="E24">
         <v>34.63768001177167</v>
       </c>
-      <c r="F24" t="inlineStr">
-        <is>
-          <t>S5</t>
-        </is>
-      </c>
     </row>
     <row r="25">
       <c r="A25" t="inlineStr">
@@ -966,11 +846,6 @@
       <c r="E25">
         <v>28.70112580140914</v>
       </c>
-      <c r="F25" t="inlineStr">
-        <is>
-          <t>S5</t>
-        </is>
-      </c>
     </row>
     <row r="26">
       <c r="A26" t="inlineStr">
@@ -990,11 +865,6 @@
       <c r="E26">
         <v>33.21704261938344</v>
       </c>
-      <c r="F26" t="inlineStr">
-        <is>
-          <t>S5</t>
-        </is>
-      </c>
     </row>
     <row r="27">
       <c r="A27" t="inlineStr">
@@ -1014,11 +884,6 @@
       <c r="E27">
         <v>21.20765562758635</v>
       </c>
-      <c r="F27" t="inlineStr">
-        <is>
-          <t>S5</t>
-        </is>
-      </c>
     </row>
     <row r="28">
       <c r="A28" t="inlineStr">
@@ -1038,11 +903,6 @@
       <c r="E28">
         <v>35.84053573000205</v>
       </c>
-      <c r="F28" t="inlineStr">
-        <is>
-          <t>S5</t>
-        </is>
-      </c>
     </row>
     <row r="29">
       <c r="A29" t="inlineStr">
@@ -1062,11 +922,6 @@
       <c r="E29">
         <v>63.83578632724505</v>
       </c>
-      <c r="F29" t="inlineStr">
-        <is>
-          <t>S5</t>
-        </is>
-      </c>
     </row>
     <row r="30">
       <c r="A30" t="inlineStr">
@@ -1086,11 +941,6 @@
       <c r="E30">
         <v>31.00558813095128</v>
       </c>
-      <c r="F30" t="inlineStr">
-        <is>
-          <t>S5</t>
-        </is>
-      </c>
     </row>
     <row r="31">
       <c r="A31" t="inlineStr">
@@ -1110,11 +960,6 @@
       <c r="E31">
         <v>39.03882325982024</v>
       </c>
-      <c r="F31" t="inlineStr">
-        <is>
-          <t>S5</t>
-        </is>
-      </c>
     </row>
     <row r="32">
       <c r="A32" t="inlineStr">
@@ -1134,11 +979,6 @@
       <c r="E32">
         <v>28.58253284614246</v>
       </c>
-      <c r="F32" t="inlineStr">
-        <is>
-          <t>S5</t>
-        </is>
-      </c>
     </row>
     <row r="33">
       <c r="A33" t="inlineStr">
@@ -1158,11 +998,6 @@
       <c r="E33">
         <v>46.46831438225764</v>
       </c>
-      <c r="F33" t="inlineStr">
-        <is>
-          <t>S5</t>
-        </is>
-      </c>
     </row>
     <row r="34">
       <c r="A34" t="inlineStr">
@@ -1182,11 +1017,6 @@
       <c r="E34">
         <v>32.06924299347569</v>
       </c>
-      <c r="F34" t="inlineStr">
-        <is>
-          <t>S5</t>
-        </is>
-      </c>
     </row>
     <row r="35">
       <c r="A35" t="inlineStr">
@@ -1206,11 +1036,6 @@
       <c r="E35">
         <v>41.07807180373145</v>
       </c>
-      <c r="F35" t="inlineStr">
-        <is>
-          <t>S5</t>
-        </is>
-      </c>
     </row>
     <row r="36">
       <c r="A36" t="inlineStr">
@@ -1230,11 +1055,6 @@
       <c r="E36">
         <v>32.12846477458199</v>
       </c>
-      <c r="F36" t="inlineStr">
-        <is>
-          <t>S5</t>
-        </is>
-      </c>
     </row>
     <row r="37">
       <c r="A37" t="inlineStr">
@@ -1254,11 +1074,6 @@
       <c r="E37">
         <v>31.79724460889633</v>
       </c>
-      <c r="F37" t="inlineStr">
-        <is>
-          <t>S5</t>
-        </is>
-      </c>
     </row>
     <row r="38">
       <c r="A38" t="inlineStr">
@@ -1278,11 +1093,6 @@
       <c r="E38">
         <v>31.97828762071892</v>
       </c>
-      <c r="F38" t="inlineStr">
-        <is>
-          <t>S5</t>
-        </is>
-      </c>
     </row>
     <row r="39">
       <c r="A39" t="inlineStr">
@@ -1302,11 +1112,6 @@
       <c r="E39">
         <v>32.0937866595111</v>
       </c>
-      <c r="F39" t="inlineStr">
-        <is>
-          <t>S5</t>
-        </is>
-      </c>
     </row>
     <row r="40">
       <c r="A40" t="inlineStr">
@@ -1326,11 +1131,6 @@
       <c r="E40">
         <v>43.89165444035245</v>
       </c>
-      <c r="F40" t="inlineStr">
-        <is>
-          <t>S5</t>
-        </is>
-      </c>
     </row>
     <row r="41">
       <c r="A41" t="inlineStr">
@@ -1350,11 +1150,6 @@
       <c r="E41">
         <v>36.9604797000524</v>
       </c>
-      <c r="F41" t="inlineStr">
-        <is>
-          <t>S5</t>
-        </is>
-      </c>
     </row>
     <row r="42">
       <c r="A42" t="inlineStr">
@@ -1374,11 +1169,6 @@
       <c r="E42">
         <v>41.35631955539282</v>
       </c>
-      <c r="F42" t="inlineStr">
-        <is>
-          <t>S5</t>
-        </is>
-      </c>
     </row>
     <row r="43">
       <c r="A43" t="inlineStr">
@@ -1398,11 +1188,6 @@
       <c r="E43">
         <v>33.9806992108897</v>
       </c>
-      <c r="F43" t="inlineStr">
-        <is>
-          <t>S5</t>
-        </is>
-      </c>
     </row>
     <row r="44">
       <c r="A44" t="inlineStr">
@@ -1422,11 +1207,6 @@
       <c r="E44">
         <v>26.60163104363588</v>
       </c>
-      <c r="F44" t="inlineStr">
-        <is>
-          <t>S5</t>
-        </is>
-      </c>
     </row>
     <row r="45">
       <c r="A45" t="inlineStr">
@@ -1446,11 +1226,6 @@
       <c r="E45">
         <v>47.74323695337087</v>
       </c>
-      <c r="F45" t="inlineStr">
-        <is>
-          <t>S5</t>
-        </is>
-      </c>
     </row>
     <row r="46">
       <c r="A46" t="inlineStr">
@@ -1470,11 +1245,6 @@
       <c r="E46">
         <v>47.97383261996821</v>
       </c>
-      <c r="F46" t="inlineStr">
-        <is>
-          <t>S5</t>
-        </is>
-      </c>
     </row>
     <row r="47">
       <c r="A47" t="inlineStr">
@@ -1494,11 +1264,6 @@
       <c r="E47">
         <v>34.77326636654423</v>
       </c>
-      <c r="F47" t="inlineStr">
-        <is>
-          <t>S5</t>
-        </is>
-      </c>
     </row>
     <row r="48">
       <c r="A48" t="inlineStr">
@@ -1518,11 +1283,6 @@
       <c r="E48">
         <v>21.76915728420372</v>
       </c>
-      <c r="F48" t="inlineStr">
-        <is>
-          <t>S5</t>
-        </is>
-      </c>
     </row>
     <row r="49">
       <c r="A49" t="inlineStr">
@@ -1542,11 +1302,6 @@
       <c r="E49">
         <v>53.76752517342644</v>
       </c>
-      <c r="F49" t="inlineStr">
-        <is>
-          <t>S5</t>
-        </is>
-      </c>
     </row>
     <row r="50">
       <c r="A50" t="inlineStr">
@@ -1566,11 +1321,6 @@
       <c r="E50">
         <v>30.27015658595338</v>
       </c>
-      <c r="F50" t="inlineStr">
-        <is>
-          <t>S5</t>
-        </is>
-      </c>
     </row>
     <row r="51">
       <c r="A51" t="inlineStr">
@@ -1590,11 +1340,6 @@
       <c r="E51">
         <v>39.91597965045125</v>
       </c>
-      <c r="F51" t="inlineStr">
-        <is>
-          <t>S5</t>
-        </is>
-      </c>
     </row>
     <row r="52">
       <c r="A52" t="inlineStr">
@@ -1614,11 +1359,6 @@
       <c r="E52">
         <v>31.39514712034604</v>
       </c>
-      <c r="F52" t="inlineStr">
-        <is>
-          <t>S5</t>
-        </is>
-      </c>
     </row>
     <row r="53">
       <c r="A53" t="inlineStr">
@@ -1638,11 +1378,6 @@
       <c r="E53">
         <v>39.69989399621305</v>
       </c>
-      <c r="F53" t="inlineStr">
-        <is>
-          <t>S5</t>
-        </is>
-      </c>
     </row>
     <row r="54">
       <c r="A54" t="inlineStr">
@@ -1662,11 +1397,6 @@
       <c r="E54">
         <v>36.82993955801849</v>
       </c>
-      <c r="F54" t="inlineStr">
-        <is>
-          <t>S5</t>
-        </is>
-      </c>
     </row>
     <row r="55">
       <c r="A55" t="inlineStr">
@@ -1686,11 +1416,6 @@
       <c r="E55">
         <v>36.50780809267105</v>
       </c>
-      <c r="F55" t="inlineStr">
-        <is>
-          <t>S5</t>
-        </is>
-      </c>
     </row>
     <row r="56">
       <c r="A56" t="inlineStr">
@@ -1710,11 +1435,6 @@
       <c r="E56">
         <v>41.34161779800483</v>
       </c>
-      <c r="F56" t="inlineStr">
-        <is>
-          <t>S5</t>
-        </is>
-      </c>
     </row>
     <row r="57">
       <c r="A57" t="inlineStr">
@@ -1734,11 +1454,6 @@
       <c r="E57">
         <v>52.37308612056123</v>
       </c>
-      <c r="F57" t="inlineStr">
-        <is>
-          <t>S5</t>
-        </is>
-      </c>
     </row>
     <row r="58">
       <c r="A58" t="inlineStr">
@@ -1758,11 +1473,6 @@
       <c r="E58">
         <v>46.89408129183581</v>
       </c>
-      <c r="F58" t="inlineStr">
-        <is>
-          <t>S5</t>
-        </is>
-      </c>
     </row>
     <row r="59">
       <c r="A59" t="inlineStr">
@@ -1782,11 +1492,6 @@
       <c r="E59">
         <v>36.16728376256484</v>
       </c>
-      <c r="F59" t="inlineStr">
-        <is>
-          <t>S5</t>
-        </is>
-      </c>
     </row>
     <row r="60">
       <c r="A60" t="inlineStr">
@@ -1806,11 +1511,6 @@
       <c r="E60">
         <v>37.86595008213377</v>
       </c>
-      <c r="F60" t="inlineStr">
-        <is>
-          <t>S5</t>
-        </is>
-      </c>
     </row>
     <row r="61">
       <c r="A61" t="inlineStr">
@@ -1830,11 +1530,6 @@
       <c r="E61">
         <v>36.27618982410679</v>
       </c>
-      <c r="F61" t="inlineStr">
-        <is>
-          <t>S5</t>
-        </is>
-      </c>
     </row>
     <row r="62">
       <c r="A62" t="inlineStr">
@@ -1854,11 +1549,6 @@
       <c r="E62">
         <v>37.81373061144841</v>
       </c>
-      <c r="F62" t="inlineStr">
-        <is>
-          <t>S5</t>
-        </is>
-      </c>
     </row>
     <row r="63">
       <c r="A63" t="inlineStr">
@@ -1878,11 +1568,6 @@
       <c r="E63">
         <v>29.95244885123448</v>
       </c>
-      <c r="F63" t="inlineStr">
-        <is>
-          <t>S5</t>
-        </is>
-      </c>
     </row>
     <row r="64">
       <c r="A64" t="inlineStr">
@@ -1902,11 +1587,6 @@
       <c r="E64">
         <v>43.88615948623971</v>
       </c>
-      <c r="F64" t="inlineStr">
-        <is>
-          <t>S5</t>
-        </is>
-      </c>
     </row>
     <row r="65">
       <c r="A65" t="inlineStr">
@@ -1926,11 +1606,6 @@
       <c r="E65">
         <v>35.69699860637994</v>
       </c>
-      <c r="F65" t="inlineStr">
-        <is>
-          <t>S5</t>
-        </is>
-      </c>
     </row>
     <row r="66">
       <c r="A66" t="inlineStr">
@@ -1950,11 +1625,6 @@
       <c r="E66">
         <v>43.12339610649641</v>
       </c>
-      <c r="F66" t="inlineStr">
-        <is>
-          <t>S5</t>
-        </is>
-      </c>
     </row>
     <row r="67">
       <c r="A67" t="inlineStr">
@@ -1974,11 +1644,6 @@
       <c r="E67">
         <v>37.12486576072786</v>
       </c>
-      <c r="F67" t="inlineStr">
-        <is>
-          <t>S5</t>
-        </is>
-      </c>
     </row>
     <row r="68">
       <c r="A68" t="inlineStr">
@@ -1998,11 +1663,6 @@
       <c r="E68">
         <v>18.12761394193073</v>
       </c>
-      <c r="F68" t="inlineStr">
-        <is>
-          <t>S5</t>
-        </is>
-      </c>
     </row>
     <row r="69">
       <c r="A69" t="inlineStr">
@@ -2022,11 +1682,6 @@
       <c r="E69">
         <v>64.79473456966376</v>
       </c>
-      <c r="F69" t="inlineStr">
-        <is>
-          <t>S5</t>
-        </is>
-      </c>
     </row>
     <row r="70">
       <c r="A70" t="inlineStr">
@@ -2046,11 +1701,6 @@
       <c r="E70">
         <v>45.92739951885694</v>
       </c>
-      <c r="F70" t="inlineStr">
-        <is>
-          <t>S5</t>
-        </is>
-      </c>
     </row>
     <row r="71">
       <c r="A71" t="inlineStr">
@@ -2070,11 +1720,6 @@
       <c r="E71">
         <v>37.01739049330526</v>
       </c>
-      <c r="F71" t="inlineStr">
-        <is>
-          <t>S5</t>
-        </is>
-      </c>
     </row>
     <row r="72">
       <c r="A72" t="inlineStr">
@@ -2094,11 +1739,6 @@
       <c r="E72">
         <v>39.48197512902068</v>
       </c>
-      <c r="F72" t="inlineStr">
-        <is>
-          <t>S5</t>
-        </is>
-      </c>
     </row>
     <row r="73">
       <c r="A73" t="inlineStr">
@@ -2118,11 +1758,6 @@
       <c r="E73">
         <v>36.57940148876396</v>
       </c>
-      <c r="F73" t="inlineStr">
-        <is>
-          <t>S5</t>
-        </is>
-      </c>
     </row>
     <row r="74">
       <c r="A74" t="inlineStr">
@@ -2142,11 +1777,6 @@
       <c r="E74">
         <v>40.13299380995644</v>
       </c>
-      <c r="F74" t="inlineStr">
-        <is>
-          <t>S5</t>
-        </is>
-      </c>
     </row>
     <row r="75">
       <c r="A75" t="inlineStr">
@@ -2166,11 +1796,6 @@
       <c r="E75">
         <v>39.23294401805383</v>
       </c>
-      <c r="F75" t="inlineStr">
-        <is>
-          <t>S5</t>
-        </is>
-      </c>
     </row>
     <row r="76">
       <c r="A76" t="inlineStr">
@@ -2190,11 +1815,6 @@
       <c r="E76">
         <v>37.39774150673931</v>
       </c>
-      <c r="F76" t="inlineStr">
-        <is>
-          <t>S5</t>
-        </is>
-      </c>
     </row>
     <row r="77">
       <c r="A77" t="inlineStr">
@@ -2214,11 +1834,6 @@
       <c r="E77">
         <v>30.53125203004993</v>
       </c>
-      <c r="F77" t="inlineStr">
-        <is>
-          <t>S5</t>
-        </is>
-      </c>
     </row>
     <row r="78">
       <c r="A78" t="inlineStr">
@@ -2238,11 +1853,6 @@
       <c r="E78">
         <v>31.46269485028784</v>
       </c>
-      <c r="F78" t="inlineStr">
-        <is>
-          <t>S5</t>
-        </is>
-      </c>
     </row>
     <row r="79">
       <c r="A79" t="inlineStr">
@@ -2262,11 +1872,6 @@
       <c r="E79">
         <v>20.84422268367878</v>
       </c>
-      <c r="F79" t="inlineStr">
-        <is>
-          <t>S5</t>
-        </is>
-      </c>
     </row>
     <row r="80">
       <c r="A80" t="inlineStr">
@@ -2286,11 +1891,6 @@
       <c r="E80">
         <v>37.82348438543815</v>
       </c>
-      <c r="F80" t="inlineStr">
-        <is>
-          <t>S5</t>
-        </is>
-      </c>
     </row>
     <row r="81">
       <c r="A81" t="inlineStr">
@@ -2310,11 +1910,6 @@
       <c r="E81">
         <v>23.94870609522823</v>
       </c>
-      <c r="F81" t="inlineStr">
-        <is>
-          <t>S5</t>
-        </is>
-      </c>
     </row>
     <row r="82">
       <c r="A82" t="inlineStr">
@@ -2334,11 +1929,6 @@
       <c r="E82">
         <v>27.98096525845754</v>
       </c>
-      <c r="F82" t="inlineStr">
-        <is>
-          <t>S5</t>
-        </is>
-      </c>
     </row>
     <row r="83">
       <c r="A83" t="inlineStr">
@@ -2358,11 +1948,6 @@
       <c r="E83">
         <v>33.39447632148848</v>
       </c>
-      <c r="F83" t="inlineStr">
-        <is>
-          <t>S5</t>
-        </is>
-      </c>
     </row>
     <row r="84">
       <c r="A84" t="inlineStr">
@@ -2382,11 +1967,6 @@
       <c r="E84">
         <v>30.80185770807167</v>
       </c>
-      <c r="F84" t="inlineStr">
-        <is>
-          <t>S5</t>
-        </is>
-      </c>
     </row>
     <row r="85">
       <c r="A85" t="inlineStr">
@@ -2406,11 +1986,6 @@
       <c r="E85">
         <v>27.54284935920796</v>
       </c>
-      <c r="F85" t="inlineStr">
-        <is>
-          <t>S5</t>
-        </is>
-      </c>
     </row>
     <row r="86">
       <c r="A86" t="inlineStr">
@@ -2430,11 +2005,6 @@
       <c r="E86">
         <v>29.00844595841327</v>
       </c>
-      <c r="F86" t="inlineStr">
-        <is>
-          <t>S5</t>
-        </is>
-      </c>
     </row>
     <row r="87">
       <c r="A87" t="inlineStr">
@@ -2454,11 +2024,6 @@
       <c r="E87">
         <v>36.28217008326812</v>
       </c>
-      <c r="F87" t="inlineStr">
-        <is>
-          <t>S5</t>
-        </is>
-      </c>
     </row>
     <row r="88">
       <c r="A88" t="inlineStr">
@@ -2478,11 +2043,6 @@
       <c r="E88">
         <v>32.14653777985414</v>
       </c>
-      <c r="F88" t="inlineStr">
-        <is>
-          <t>S5</t>
-        </is>
-      </c>
     </row>
     <row r="89">
       <c r="A89" t="inlineStr">
@@ -2502,11 +2062,6 @@
       <c r="E89">
         <v>49.22071810619293</v>
       </c>
-      <c r="F89" t="inlineStr">
-        <is>
-          <t>S5</t>
-        </is>
-      </c>
     </row>
     <row r="90">
       <c r="A90" t="inlineStr">
@@ -2526,11 +2081,6 @@
       <c r="E90">
         <v>38.59024854812698</v>
       </c>
-      <c r="F90" t="inlineStr">
-        <is>
-          <t>S5</t>
-        </is>
-      </c>
     </row>
     <row r="91">
       <c r="A91" t="inlineStr">
@@ -2550,11 +2100,6 @@
       <c r="E91">
         <v>38.83971799583165</v>
       </c>
-      <c r="F91" t="inlineStr">
-        <is>
-          <t>S5</t>
-        </is>
-      </c>
     </row>
     <row r="92">
       <c r="A92" t="inlineStr">
@@ -2574,11 +2119,6 @@
       <c r="E92">
         <v>42.64900603502772</v>
       </c>
-      <c r="F92" t="inlineStr">
-        <is>
-          <t>S5</t>
-        </is>
-      </c>
     </row>
     <row r="93">
       <c r="A93" t="inlineStr">
@@ -2598,11 +2138,6 @@
       <c r="E93">
         <v>48.99556026978128</v>
       </c>
-      <c r="F93" t="inlineStr">
-        <is>
-          <t>S5</t>
-        </is>
-      </c>
     </row>
     <row r="94">
       <c r="A94" t="inlineStr">
@@ -2622,11 +2157,6 @@
       <c r="E94">
         <v>43.86128860418635</v>
       </c>
-      <c r="F94" t="inlineStr">
-        <is>
-          <t>S5</t>
-        </is>
-      </c>
     </row>
     <row r="95">
       <c r="A95" t="inlineStr">
@@ -2646,11 +2176,6 @@
       <c r="E95">
         <v>37.90085510855813</v>
       </c>
-      <c r="F95" t="inlineStr">
-        <is>
-          <t>S5</t>
-        </is>
-      </c>
     </row>
     <row r="96">
       <c r="A96" t="inlineStr">
@@ -2670,11 +2195,6 @@
       <c r="E96">
         <v>53.58060789650659</v>
       </c>
-      <c r="F96" t="inlineStr">
-        <is>
-          <t>S5</t>
-        </is>
-      </c>
     </row>
     <row r="97">
       <c r="A97" t="inlineStr">
@@ -2694,11 +2214,6 @@
       <c r="E97">
         <v>26.67571174349406</v>
       </c>
-      <c r="F97" t="inlineStr">
-        <is>
-          <t>S5</t>
-        </is>
-      </c>
     </row>
     <row r="98">
       <c r="A98" t="inlineStr">
@@ -2718,11 +2233,6 @@
       <c r="E98">
         <v>27.64552447644686</v>
       </c>
-      <c r="F98" t="inlineStr">
-        <is>
-          <t>S5</t>
-        </is>
-      </c>
     </row>
     <row r="99">
       <c r="A99" t="inlineStr">
@@ -2742,11 +2252,6 @@
       <c r="E99">
         <v>36.65932971747905</v>
       </c>
-      <c r="F99" t="inlineStr">
-        <is>
-          <t>S5</t>
-        </is>
-      </c>
     </row>
     <row r="100">
       <c r="A100" t="inlineStr">
@@ -2766,11 +2271,6 @@
       <c r="E100">
         <v>30.7038529202802</v>
       </c>
-      <c r="F100" t="inlineStr">
-        <is>
-          <t>S5</t>
-        </is>
-      </c>
     </row>
     <row r="101">
       <c r="A101" t="inlineStr">
@@ -2789,11 +2289,6 @@
       </c>
       <c r="E101">
         <v>39.77196842482534</v>
-      </c>
-      <c r="F101" t="inlineStr">
-        <is>
-          <t>S5</t>
-        </is>
       </c>
     </row>
   </sheetData>

--- a/sensitivity analysis/outputs/S5/S5_start_immunity.xlsx
+++ b/sensitivity analysis/outputs/S5/S5_start_immunity.xlsx
@@ -355,7 +355,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:E101"/>
+  <dimension ref="A1:F101"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -390,6 +390,11 @@
           <t>immunity_by_vaccination</t>
         </is>
       </c>
+      <c r="F1" s="1" t="inlineStr">
+        <is>
+          <t>scenario</t>
+        </is>
+      </c>
     </row>
     <row r="2">
       <c r="A2" t="inlineStr">
@@ -409,6 +414,11 @@
       <c r="E2">
         <v>44.81348600949811</v>
       </c>
+      <c r="F2" t="inlineStr">
+        <is>
+          <t>S5</t>
+        </is>
+      </c>
     </row>
     <row r="3">
       <c r="A3" t="inlineStr">
@@ -428,6 +438,11 @@
       <c r="E3">
         <v>30.0654685149135</v>
       </c>
+      <c r="F3" t="inlineStr">
+        <is>
+          <t>S5</t>
+        </is>
+      </c>
     </row>
     <row r="4">
       <c r="A4" t="inlineStr">
@@ -447,6 +462,11 @@
       <c r="E4">
         <v>50.77993241202797</v>
       </c>
+      <c r="F4" t="inlineStr">
+        <is>
+          <t>S5</t>
+        </is>
+      </c>
     </row>
     <row r="5">
       <c r="A5" t="inlineStr">
@@ -466,6 +486,11 @@
       <c r="E5">
         <v>27.92224978552357</v>
       </c>
+      <c r="F5" t="inlineStr">
+        <is>
+          <t>S5</t>
+        </is>
+      </c>
     </row>
     <row r="6">
       <c r="A6" t="inlineStr">
@@ -485,6 +510,11 @@
       <c r="E6">
         <v>40.79653466175498</v>
       </c>
+      <c r="F6" t="inlineStr">
+        <is>
+          <t>S5</t>
+        </is>
+      </c>
     </row>
     <row r="7">
       <c r="A7" t="inlineStr">
@@ -504,6 +534,11 @@
       <c r="E7">
         <v>46.09740784647847</v>
       </c>
+      <c r="F7" t="inlineStr">
+        <is>
+          <t>S5</t>
+        </is>
+      </c>
     </row>
     <row r="8">
       <c r="A8" t="inlineStr">
@@ -523,6 +558,11 @@
       <c r="E8">
         <v>43.17335152827879</v>
       </c>
+      <c r="F8" t="inlineStr">
+        <is>
+          <t>S5</t>
+        </is>
+      </c>
     </row>
     <row r="9">
       <c r="A9" t="inlineStr">
@@ -542,6 +582,11 @@
       <c r="E9">
         <v>41.2609406211385</v>
       </c>
+      <c r="F9" t="inlineStr">
+        <is>
+          <t>S5</t>
+        </is>
+      </c>
     </row>
     <row r="10">
       <c r="A10" t="inlineStr">
@@ -561,6 +606,11 @@
       <c r="E10">
         <v>33.06171551933834</v>
       </c>
+      <c r="F10" t="inlineStr">
+        <is>
+          <t>S5</t>
+        </is>
+      </c>
     </row>
     <row r="11">
       <c r="A11" t="inlineStr">
@@ -580,6 +630,11 @@
       <c r="E11">
         <v>49.06748884478831</v>
       </c>
+      <c r="F11" t="inlineStr">
+        <is>
+          <t>S5</t>
+        </is>
+      </c>
     </row>
     <row r="12">
       <c r="A12" t="inlineStr">
@@ -599,6 +654,11 @@
       <c r="E12">
         <v>46.7876473795855</v>
       </c>
+      <c r="F12" t="inlineStr">
+        <is>
+          <t>S5</t>
+        </is>
+      </c>
     </row>
     <row r="13">
       <c r="A13" t="inlineStr">
@@ -618,6 +678,11 @@
       <c r="E13">
         <v>31.11422338968807</v>
       </c>
+      <c r="F13" t="inlineStr">
+        <is>
+          <t>S5</t>
+        </is>
+      </c>
     </row>
     <row r="14">
       <c r="A14" t="inlineStr">
@@ -637,6 +702,11 @@
       <c r="E14">
         <v>30.78172456414869</v>
       </c>
+      <c r="F14" t="inlineStr">
+        <is>
+          <t>S5</t>
+        </is>
+      </c>
     </row>
     <row r="15">
       <c r="A15" t="inlineStr">
@@ -656,6 +726,11 @@
       <c r="E15">
         <v>32.18610812380206</v>
       </c>
+      <c r="F15" t="inlineStr">
+        <is>
+          <t>S5</t>
+        </is>
+      </c>
     </row>
     <row r="16">
       <c r="A16" t="inlineStr">
@@ -675,6 +750,11 @@
       <c r="E16">
         <v>32.0718929433087</v>
       </c>
+      <c r="F16" t="inlineStr">
+        <is>
+          <t>S5</t>
+        </is>
+      </c>
     </row>
     <row r="17">
       <c r="A17" t="inlineStr">
@@ -694,6 +774,11 @@
       <c r="E17">
         <v>40.6322624770084</v>
       </c>
+      <c r="F17" t="inlineStr">
+        <is>
+          <t>S5</t>
+        </is>
+      </c>
     </row>
     <row r="18">
       <c r="A18" t="inlineStr">
@@ -713,6 +798,11 @@
       <c r="E18">
         <v>37.99377977496323</v>
       </c>
+      <c r="F18" t="inlineStr">
+        <is>
+          <t>S5</t>
+        </is>
+      </c>
     </row>
     <row r="19">
       <c r="A19" t="inlineStr">
@@ -732,6 +822,11 @@
       <c r="E19">
         <v>33.77182577149271</v>
       </c>
+      <c r="F19" t="inlineStr">
+        <is>
+          <t>S5</t>
+        </is>
+      </c>
     </row>
     <row r="20">
       <c r="A20" t="inlineStr">
@@ -751,6 +846,11 @@
       <c r="E20">
         <v>49.45006792033143</v>
       </c>
+      <c r="F20" t="inlineStr">
+        <is>
+          <t>S5</t>
+        </is>
+      </c>
     </row>
     <row r="21">
       <c r="A21" t="inlineStr">
@@ -770,6 +870,11 @@
       <c r="E21">
         <v>30.78858754939254</v>
       </c>
+      <c r="F21" t="inlineStr">
+        <is>
+          <t>S5</t>
+        </is>
+      </c>
     </row>
     <row r="22">
       <c r="A22" t="inlineStr">
@@ -789,6 +894,11 @@
       <c r="E22">
         <v>46.92851349613549</v>
       </c>
+      <c r="F22" t="inlineStr">
+        <is>
+          <t>S5</t>
+        </is>
+      </c>
     </row>
     <row r="23">
       <c r="A23" t="inlineStr">
@@ -808,6 +918,11 @@
       <c r="E23">
         <v>34.90912819560169</v>
       </c>
+      <c r="F23" t="inlineStr">
+        <is>
+          <t>S5</t>
+        </is>
+      </c>
     </row>
     <row r="24">
       <c r="A24" t="inlineStr">
@@ -827,6 +942,11 @@
       <c r="E24">
         <v>34.63768001177167</v>
       </c>
+      <c r="F24" t="inlineStr">
+        <is>
+          <t>S5</t>
+        </is>
+      </c>
     </row>
     <row r="25">
       <c r="A25" t="inlineStr">
@@ -846,6 +966,11 @@
       <c r="E25">
         <v>28.70112580140914</v>
       </c>
+      <c r="F25" t="inlineStr">
+        <is>
+          <t>S5</t>
+        </is>
+      </c>
     </row>
     <row r="26">
       <c r="A26" t="inlineStr">
@@ -865,6 +990,11 @@
       <c r="E26">
         <v>33.21704261938344</v>
       </c>
+      <c r="F26" t="inlineStr">
+        <is>
+          <t>S5</t>
+        </is>
+      </c>
     </row>
     <row r="27">
       <c r="A27" t="inlineStr">
@@ -884,6 +1014,11 @@
       <c r="E27">
         <v>21.20765562758635</v>
       </c>
+      <c r="F27" t="inlineStr">
+        <is>
+          <t>S5</t>
+        </is>
+      </c>
     </row>
     <row r="28">
       <c r="A28" t="inlineStr">
@@ -903,6 +1038,11 @@
       <c r="E28">
         <v>35.84053573000205</v>
       </c>
+      <c r="F28" t="inlineStr">
+        <is>
+          <t>S5</t>
+        </is>
+      </c>
     </row>
     <row r="29">
       <c r="A29" t="inlineStr">
@@ -922,6 +1062,11 @@
       <c r="E29">
         <v>63.83578632724505</v>
       </c>
+      <c r="F29" t="inlineStr">
+        <is>
+          <t>S5</t>
+        </is>
+      </c>
     </row>
     <row r="30">
       <c r="A30" t="inlineStr">
@@ -941,6 +1086,11 @@
       <c r="E30">
         <v>31.00558813095128</v>
       </c>
+      <c r="F30" t="inlineStr">
+        <is>
+          <t>S5</t>
+        </is>
+      </c>
     </row>
     <row r="31">
       <c r="A31" t="inlineStr">
@@ -960,6 +1110,11 @@
       <c r="E31">
         <v>39.03882325982024</v>
       </c>
+      <c r="F31" t="inlineStr">
+        <is>
+          <t>S5</t>
+        </is>
+      </c>
     </row>
     <row r="32">
       <c r="A32" t="inlineStr">
@@ -979,6 +1134,11 @@
       <c r="E32">
         <v>28.58253284614246</v>
       </c>
+      <c r="F32" t="inlineStr">
+        <is>
+          <t>S5</t>
+        </is>
+      </c>
     </row>
     <row r="33">
       <c r="A33" t="inlineStr">
@@ -998,6 +1158,11 @@
       <c r="E33">
         <v>46.46831438225764</v>
       </c>
+      <c r="F33" t="inlineStr">
+        <is>
+          <t>S5</t>
+        </is>
+      </c>
     </row>
     <row r="34">
       <c r="A34" t="inlineStr">
@@ -1017,6 +1182,11 @@
       <c r="E34">
         <v>32.06924299347569</v>
       </c>
+      <c r="F34" t="inlineStr">
+        <is>
+          <t>S5</t>
+        </is>
+      </c>
     </row>
     <row r="35">
       <c r="A35" t="inlineStr">
@@ -1036,6 +1206,11 @@
       <c r="E35">
         <v>41.07807180373145</v>
       </c>
+      <c r="F35" t="inlineStr">
+        <is>
+          <t>S5</t>
+        </is>
+      </c>
     </row>
     <row r="36">
       <c r="A36" t="inlineStr">
@@ -1055,6 +1230,11 @@
       <c r="E36">
         <v>32.12846477458199</v>
       </c>
+      <c r="F36" t="inlineStr">
+        <is>
+          <t>S5</t>
+        </is>
+      </c>
     </row>
     <row r="37">
       <c r="A37" t="inlineStr">
@@ -1074,6 +1254,11 @@
       <c r="E37">
         <v>31.79724460889633</v>
       </c>
+      <c r="F37" t="inlineStr">
+        <is>
+          <t>S5</t>
+        </is>
+      </c>
     </row>
     <row r="38">
       <c r="A38" t="inlineStr">
@@ -1093,6 +1278,11 @@
       <c r="E38">
         <v>31.97828762071892</v>
       </c>
+      <c r="F38" t="inlineStr">
+        <is>
+          <t>S5</t>
+        </is>
+      </c>
     </row>
     <row r="39">
       <c r="A39" t="inlineStr">
@@ -1112,6 +1302,11 @@
       <c r="E39">
         <v>32.0937866595111</v>
       </c>
+      <c r="F39" t="inlineStr">
+        <is>
+          <t>S5</t>
+        </is>
+      </c>
     </row>
     <row r="40">
       <c r="A40" t="inlineStr">
@@ -1131,6 +1326,11 @@
       <c r="E40">
         <v>43.89165444035245</v>
       </c>
+      <c r="F40" t="inlineStr">
+        <is>
+          <t>S5</t>
+        </is>
+      </c>
     </row>
     <row r="41">
       <c r="A41" t="inlineStr">
@@ -1150,6 +1350,11 @@
       <c r="E41">
         <v>36.9604797000524</v>
       </c>
+      <c r="F41" t="inlineStr">
+        <is>
+          <t>S5</t>
+        </is>
+      </c>
     </row>
     <row r="42">
       <c r="A42" t="inlineStr">
@@ -1169,6 +1374,11 @@
       <c r="E42">
         <v>41.35631955539282</v>
       </c>
+      <c r="F42" t="inlineStr">
+        <is>
+          <t>S5</t>
+        </is>
+      </c>
     </row>
     <row r="43">
       <c r="A43" t="inlineStr">
@@ -1188,6 +1398,11 @@
       <c r="E43">
         <v>33.9806992108897</v>
       </c>
+      <c r="F43" t="inlineStr">
+        <is>
+          <t>S5</t>
+        </is>
+      </c>
     </row>
     <row r="44">
       <c r="A44" t="inlineStr">
@@ -1207,6 +1422,11 @@
       <c r="E44">
         <v>26.60163104363588</v>
       </c>
+      <c r="F44" t="inlineStr">
+        <is>
+          <t>S5</t>
+        </is>
+      </c>
     </row>
     <row r="45">
       <c r="A45" t="inlineStr">
@@ -1226,6 +1446,11 @@
       <c r="E45">
         <v>47.74323695337087</v>
       </c>
+      <c r="F45" t="inlineStr">
+        <is>
+          <t>S5</t>
+        </is>
+      </c>
     </row>
     <row r="46">
       <c r="A46" t="inlineStr">
@@ -1245,6 +1470,11 @@
       <c r="E46">
         <v>47.97383261996821</v>
       </c>
+      <c r="F46" t="inlineStr">
+        <is>
+          <t>S5</t>
+        </is>
+      </c>
     </row>
     <row r="47">
       <c r="A47" t="inlineStr">
@@ -1264,6 +1494,11 @@
       <c r="E47">
         <v>34.77326636654423</v>
       </c>
+      <c r="F47" t="inlineStr">
+        <is>
+          <t>S5</t>
+        </is>
+      </c>
     </row>
     <row r="48">
       <c r="A48" t="inlineStr">
@@ -1283,6 +1518,11 @@
       <c r="E48">
         <v>21.76915728420372</v>
       </c>
+      <c r="F48" t="inlineStr">
+        <is>
+          <t>S5</t>
+        </is>
+      </c>
     </row>
     <row r="49">
       <c r="A49" t="inlineStr">
@@ -1302,6 +1542,11 @@
       <c r="E49">
         <v>53.76752517342644</v>
       </c>
+      <c r="F49" t="inlineStr">
+        <is>
+          <t>S5</t>
+        </is>
+      </c>
     </row>
     <row r="50">
       <c r="A50" t="inlineStr">
@@ -1321,6 +1566,11 @@
       <c r="E50">
         <v>30.27015658595338</v>
       </c>
+      <c r="F50" t="inlineStr">
+        <is>
+          <t>S5</t>
+        </is>
+      </c>
     </row>
     <row r="51">
       <c r="A51" t="inlineStr">
@@ -1340,6 +1590,11 @@
       <c r="E51">
         <v>39.91597965045125</v>
       </c>
+      <c r="F51" t="inlineStr">
+        <is>
+          <t>S5</t>
+        </is>
+      </c>
     </row>
     <row r="52">
       <c r="A52" t="inlineStr">
@@ -1359,6 +1614,11 @@
       <c r="E52">
         <v>31.39514712034604</v>
       </c>
+      <c r="F52" t="inlineStr">
+        <is>
+          <t>S5</t>
+        </is>
+      </c>
     </row>
     <row r="53">
       <c r="A53" t="inlineStr">
@@ -1378,6 +1638,11 @@
       <c r="E53">
         <v>39.69989399621305</v>
       </c>
+      <c r="F53" t="inlineStr">
+        <is>
+          <t>S5</t>
+        </is>
+      </c>
     </row>
     <row r="54">
       <c r="A54" t="inlineStr">
@@ -1397,6 +1662,11 @@
       <c r="E54">
         <v>36.82993955801849</v>
       </c>
+      <c r="F54" t="inlineStr">
+        <is>
+          <t>S5</t>
+        </is>
+      </c>
     </row>
     <row r="55">
       <c r="A55" t="inlineStr">
@@ -1416,6 +1686,11 @@
       <c r="E55">
         <v>36.50780809267105</v>
       </c>
+      <c r="F55" t="inlineStr">
+        <is>
+          <t>S5</t>
+        </is>
+      </c>
     </row>
     <row r="56">
       <c r="A56" t="inlineStr">
@@ -1435,6 +1710,11 @@
       <c r="E56">
         <v>41.34161779800483</v>
       </c>
+      <c r="F56" t="inlineStr">
+        <is>
+          <t>S5</t>
+        </is>
+      </c>
     </row>
     <row r="57">
       <c r="A57" t="inlineStr">
@@ -1454,6 +1734,11 @@
       <c r="E57">
         <v>52.37308612056123</v>
       </c>
+      <c r="F57" t="inlineStr">
+        <is>
+          <t>S5</t>
+        </is>
+      </c>
     </row>
     <row r="58">
       <c r="A58" t="inlineStr">
@@ -1473,6 +1758,11 @@
       <c r="E58">
         <v>46.89408129183581</v>
       </c>
+      <c r="F58" t="inlineStr">
+        <is>
+          <t>S5</t>
+        </is>
+      </c>
     </row>
     <row r="59">
       <c r="A59" t="inlineStr">
@@ -1492,6 +1782,11 @@
       <c r="E59">
         <v>36.16728376256484</v>
       </c>
+      <c r="F59" t="inlineStr">
+        <is>
+          <t>S5</t>
+        </is>
+      </c>
     </row>
     <row r="60">
       <c r="A60" t="inlineStr">
@@ -1511,6 +1806,11 @@
       <c r="E60">
         <v>37.86595008213377</v>
       </c>
+      <c r="F60" t="inlineStr">
+        <is>
+          <t>S5</t>
+        </is>
+      </c>
     </row>
     <row r="61">
       <c r="A61" t="inlineStr">
@@ -1530,6 +1830,11 @@
       <c r="E61">
         <v>36.27618982410679</v>
       </c>
+      <c r="F61" t="inlineStr">
+        <is>
+          <t>S5</t>
+        </is>
+      </c>
     </row>
     <row r="62">
       <c r="A62" t="inlineStr">
@@ -1549,6 +1854,11 @@
       <c r="E62">
         <v>37.81373061144841</v>
       </c>
+      <c r="F62" t="inlineStr">
+        <is>
+          <t>S5</t>
+        </is>
+      </c>
     </row>
     <row r="63">
       <c r="A63" t="inlineStr">
@@ -1568,6 +1878,11 @@
       <c r="E63">
         <v>29.95244885123448</v>
       </c>
+      <c r="F63" t="inlineStr">
+        <is>
+          <t>S5</t>
+        </is>
+      </c>
     </row>
     <row r="64">
       <c r="A64" t="inlineStr">
@@ -1587,6 +1902,11 @@
       <c r="E64">
         <v>43.88615948623971</v>
       </c>
+      <c r="F64" t="inlineStr">
+        <is>
+          <t>S5</t>
+        </is>
+      </c>
     </row>
     <row r="65">
       <c r="A65" t="inlineStr">
@@ -1606,6 +1926,11 @@
       <c r="E65">
         <v>35.69699860637994</v>
       </c>
+      <c r="F65" t="inlineStr">
+        <is>
+          <t>S5</t>
+        </is>
+      </c>
     </row>
     <row r="66">
       <c r="A66" t="inlineStr">
@@ -1625,6 +1950,11 @@
       <c r="E66">
         <v>43.12339610649641</v>
       </c>
+      <c r="F66" t="inlineStr">
+        <is>
+          <t>S5</t>
+        </is>
+      </c>
     </row>
     <row r="67">
       <c r="A67" t="inlineStr">
@@ -1644,6 +1974,11 @@
       <c r="E67">
         <v>37.12486576072786</v>
       </c>
+      <c r="F67" t="inlineStr">
+        <is>
+          <t>S5</t>
+        </is>
+      </c>
     </row>
     <row r="68">
       <c r="A68" t="inlineStr">
@@ -1663,6 +1998,11 @@
       <c r="E68">
         <v>18.12761394193073</v>
       </c>
+      <c r="F68" t="inlineStr">
+        <is>
+          <t>S5</t>
+        </is>
+      </c>
     </row>
     <row r="69">
       <c r="A69" t="inlineStr">
@@ -1682,6 +2022,11 @@
       <c r="E69">
         <v>64.79473456966376</v>
       </c>
+      <c r="F69" t="inlineStr">
+        <is>
+          <t>S5</t>
+        </is>
+      </c>
     </row>
     <row r="70">
       <c r="A70" t="inlineStr">
@@ -1701,6 +2046,11 @@
       <c r="E70">
         <v>45.92739951885694</v>
       </c>
+      <c r="F70" t="inlineStr">
+        <is>
+          <t>S5</t>
+        </is>
+      </c>
     </row>
     <row r="71">
       <c r="A71" t="inlineStr">
@@ -1720,6 +2070,11 @@
       <c r="E71">
         <v>37.01739049330526</v>
       </c>
+      <c r="F71" t="inlineStr">
+        <is>
+          <t>S5</t>
+        </is>
+      </c>
     </row>
     <row r="72">
       <c r="A72" t="inlineStr">
@@ -1739,6 +2094,11 @@
       <c r="E72">
         <v>39.48197512902068</v>
       </c>
+      <c r="F72" t="inlineStr">
+        <is>
+          <t>S5</t>
+        </is>
+      </c>
     </row>
     <row r="73">
       <c r="A73" t="inlineStr">
@@ -1758,6 +2118,11 @@
       <c r="E73">
         <v>36.57940148876396</v>
       </c>
+      <c r="F73" t="inlineStr">
+        <is>
+          <t>S5</t>
+        </is>
+      </c>
     </row>
     <row r="74">
       <c r="A74" t="inlineStr">
@@ -1777,6 +2142,11 @@
       <c r="E74">
         <v>40.13299380995644</v>
       </c>
+      <c r="F74" t="inlineStr">
+        <is>
+          <t>S5</t>
+        </is>
+      </c>
     </row>
     <row r="75">
       <c r="A75" t="inlineStr">
@@ -1796,6 +2166,11 @@
       <c r="E75">
         <v>39.23294401805383</v>
       </c>
+      <c r="F75" t="inlineStr">
+        <is>
+          <t>S5</t>
+        </is>
+      </c>
     </row>
     <row r="76">
       <c r="A76" t="inlineStr">
@@ -1815,6 +2190,11 @@
       <c r="E76">
         <v>37.39774150673931</v>
       </c>
+      <c r="F76" t="inlineStr">
+        <is>
+          <t>S5</t>
+        </is>
+      </c>
     </row>
     <row r="77">
       <c r="A77" t="inlineStr">
@@ -1834,6 +2214,11 @@
       <c r="E77">
         <v>30.53125203004993</v>
       </c>
+      <c r="F77" t="inlineStr">
+        <is>
+          <t>S5</t>
+        </is>
+      </c>
     </row>
     <row r="78">
       <c r="A78" t="inlineStr">
@@ -1853,6 +2238,11 @@
       <c r="E78">
         <v>31.46269485028784</v>
       </c>
+      <c r="F78" t="inlineStr">
+        <is>
+          <t>S5</t>
+        </is>
+      </c>
     </row>
     <row r="79">
       <c r="A79" t="inlineStr">
@@ -1872,6 +2262,11 @@
       <c r="E79">
         <v>20.84422268367878</v>
       </c>
+      <c r="F79" t="inlineStr">
+        <is>
+          <t>S5</t>
+        </is>
+      </c>
     </row>
     <row r="80">
       <c r="A80" t="inlineStr">
@@ -1891,6 +2286,11 @@
       <c r="E80">
         <v>37.82348438543815</v>
       </c>
+      <c r="F80" t="inlineStr">
+        <is>
+          <t>S5</t>
+        </is>
+      </c>
     </row>
     <row r="81">
       <c r="A81" t="inlineStr">
@@ -1910,6 +2310,11 @@
       <c r="E81">
         <v>23.94870609522823</v>
       </c>
+      <c r="F81" t="inlineStr">
+        <is>
+          <t>S5</t>
+        </is>
+      </c>
     </row>
     <row r="82">
       <c r="A82" t="inlineStr">
@@ -1929,6 +2334,11 @@
       <c r="E82">
         <v>27.98096525845754</v>
       </c>
+      <c r="F82" t="inlineStr">
+        <is>
+          <t>S5</t>
+        </is>
+      </c>
     </row>
     <row r="83">
       <c r="A83" t="inlineStr">
@@ -1948,6 +2358,11 @@
       <c r="E83">
         <v>33.39447632148848</v>
       </c>
+      <c r="F83" t="inlineStr">
+        <is>
+          <t>S5</t>
+        </is>
+      </c>
     </row>
     <row r="84">
       <c r="A84" t="inlineStr">
@@ -1967,6 +2382,11 @@
       <c r="E84">
         <v>30.80185770807167</v>
       </c>
+      <c r="F84" t="inlineStr">
+        <is>
+          <t>S5</t>
+        </is>
+      </c>
     </row>
     <row r="85">
       <c r="A85" t="inlineStr">
@@ -1986,6 +2406,11 @@
       <c r="E85">
         <v>27.54284935920796</v>
       </c>
+      <c r="F85" t="inlineStr">
+        <is>
+          <t>S5</t>
+        </is>
+      </c>
     </row>
     <row r="86">
       <c r="A86" t="inlineStr">
@@ -2005,6 +2430,11 @@
       <c r="E86">
         <v>29.00844595841327</v>
       </c>
+      <c r="F86" t="inlineStr">
+        <is>
+          <t>S5</t>
+        </is>
+      </c>
     </row>
     <row r="87">
       <c r="A87" t="inlineStr">
@@ -2024,6 +2454,11 @@
       <c r="E87">
         <v>36.28217008326812</v>
       </c>
+      <c r="F87" t="inlineStr">
+        <is>
+          <t>S5</t>
+        </is>
+      </c>
     </row>
     <row r="88">
       <c r="A88" t="inlineStr">
@@ -2043,6 +2478,11 @@
       <c r="E88">
         <v>32.14653777985414</v>
       </c>
+      <c r="F88" t="inlineStr">
+        <is>
+          <t>S5</t>
+        </is>
+      </c>
     </row>
     <row r="89">
       <c r="A89" t="inlineStr">
@@ -2062,6 +2502,11 @@
       <c r="E89">
         <v>49.22071810619293</v>
       </c>
+      <c r="F89" t="inlineStr">
+        <is>
+          <t>S5</t>
+        </is>
+      </c>
     </row>
     <row r="90">
       <c r="A90" t="inlineStr">
@@ -2081,6 +2526,11 @@
       <c r="E90">
         <v>38.59024854812698</v>
       </c>
+      <c r="F90" t="inlineStr">
+        <is>
+          <t>S5</t>
+        </is>
+      </c>
     </row>
     <row r="91">
       <c r="A91" t="inlineStr">
@@ -2100,6 +2550,11 @@
       <c r="E91">
         <v>38.83971799583165</v>
       </c>
+      <c r="F91" t="inlineStr">
+        <is>
+          <t>S5</t>
+        </is>
+      </c>
     </row>
     <row r="92">
       <c r="A92" t="inlineStr">
@@ -2119,6 +2574,11 @@
       <c r="E92">
         <v>42.64900603502772</v>
       </c>
+      <c r="F92" t="inlineStr">
+        <is>
+          <t>S5</t>
+        </is>
+      </c>
     </row>
     <row r="93">
       <c r="A93" t="inlineStr">
@@ -2138,6 +2598,11 @@
       <c r="E93">
         <v>48.99556026978128</v>
       </c>
+      <c r="F93" t="inlineStr">
+        <is>
+          <t>S5</t>
+        </is>
+      </c>
     </row>
     <row r="94">
       <c r="A94" t="inlineStr">
@@ -2157,6 +2622,11 @@
       <c r="E94">
         <v>43.86128860418635</v>
       </c>
+      <c r="F94" t="inlineStr">
+        <is>
+          <t>S5</t>
+        </is>
+      </c>
     </row>
     <row r="95">
       <c r="A95" t="inlineStr">
@@ -2176,6 +2646,11 @@
       <c r="E95">
         <v>37.90085510855813</v>
       </c>
+      <c r="F95" t="inlineStr">
+        <is>
+          <t>S5</t>
+        </is>
+      </c>
     </row>
     <row r="96">
       <c r="A96" t="inlineStr">
@@ -2195,6 +2670,11 @@
       <c r="E96">
         <v>53.58060789650659</v>
       </c>
+      <c r="F96" t="inlineStr">
+        <is>
+          <t>S5</t>
+        </is>
+      </c>
     </row>
     <row r="97">
       <c r="A97" t="inlineStr">
@@ -2214,6 +2694,11 @@
       <c r="E97">
         <v>26.67571174349406</v>
       </c>
+      <c r="F97" t="inlineStr">
+        <is>
+          <t>S5</t>
+        </is>
+      </c>
     </row>
     <row r="98">
       <c r="A98" t="inlineStr">
@@ -2233,6 +2718,11 @@
       <c r="E98">
         <v>27.64552447644686</v>
       </c>
+      <c r="F98" t="inlineStr">
+        <is>
+          <t>S5</t>
+        </is>
+      </c>
     </row>
     <row r="99">
       <c r="A99" t="inlineStr">
@@ -2252,6 +2742,11 @@
       <c r="E99">
         <v>36.65932971747905</v>
       </c>
+      <c r="F99" t="inlineStr">
+        <is>
+          <t>S5</t>
+        </is>
+      </c>
     </row>
     <row r="100">
       <c r="A100" t="inlineStr">
@@ -2271,6 +2766,11 @@
       <c r="E100">
         <v>30.7038529202802</v>
       </c>
+      <c r="F100" t="inlineStr">
+        <is>
+          <t>S5</t>
+        </is>
+      </c>
     </row>
     <row r="101">
       <c r="A101" t="inlineStr">
@@ -2289,6 +2789,11 @@
       </c>
       <c r="E101">
         <v>39.77196842482534</v>
+      </c>
+      <c r="F101" t="inlineStr">
+        <is>
+          <t>S5</t>
+        </is>
       </c>
     </row>
   </sheetData>
